--- a/FCS测试结果/测试用例_result_2022_09_30_11_23_17.xlsx
+++ b/FCS测试结果/测试用例_result_2022_09_30_11_23_17.xlsx
@@ -784,6 +784,16 @@
       <c r="I6" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_005.png</t>
+        </is>
+      </c>
+      <c r="L6" s="11" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="2" t="inlineStr">
@@ -2944,6 +2954,11 @@
       </c>
       <c r="I58" s="8" t="n">
         <v>1</v>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_057.png</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2958,95 +2973,97 @@
     <hyperlink ref="H5" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="B9" r:id="rId14"/>
-    <hyperlink ref="B10" r:id="rId15"/>
-    <hyperlink ref="H10" r:id="rId16"/>
-    <hyperlink ref="B11" r:id="rId17"/>
-    <hyperlink ref="H11" r:id="rId18"/>
-    <hyperlink ref="B12" r:id="rId19"/>
-    <hyperlink ref="H12" r:id="rId20"/>
-    <hyperlink ref="B13" r:id="rId21"/>
-    <hyperlink ref="B14" r:id="rId22"/>
-    <hyperlink ref="H14" r:id="rId23"/>
-    <hyperlink ref="B15" r:id="rId24"/>
-    <hyperlink ref="H15" r:id="rId25"/>
-    <hyperlink ref="B16" r:id="rId26"/>
-    <hyperlink ref="H16" r:id="rId27"/>
-    <hyperlink ref="B17" r:id="rId28"/>
-    <hyperlink ref="H17" r:id="rId29"/>
-    <hyperlink ref="B18" r:id="rId30"/>
-    <hyperlink ref="H18" r:id="rId31"/>
-    <hyperlink ref="B19" r:id="rId32"/>
-    <hyperlink ref="H19" r:id="rId33"/>
-    <hyperlink ref="B20" r:id="rId34"/>
-    <hyperlink ref="H20" r:id="rId35"/>
-    <hyperlink ref="B21" r:id="rId36"/>
-    <hyperlink ref="H21" r:id="rId37"/>
-    <hyperlink ref="B22" r:id="rId38"/>
-    <hyperlink ref="H22" r:id="rId39"/>
-    <hyperlink ref="B23" r:id="rId40"/>
-    <hyperlink ref="H23" r:id="rId41"/>
-    <hyperlink ref="B24" r:id="rId42"/>
-    <hyperlink ref="H24" r:id="rId43"/>
-    <hyperlink ref="B25" r:id="rId44"/>
-    <hyperlink ref="H25" r:id="rId45"/>
-    <hyperlink ref="B26" r:id="rId46"/>
-    <hyperlink ref="H26" r:id="rId47"/>
-    <hyperlink ref="B27" r:id="rId48"/>
-    <hyperlink ref="H27" r:id="rId49"/>
-    <hyperlink ref="B28" r:id="rId50"/>
-    <hyperlink ref="H28" r:id="rId51"/>
-    <hyperlink ref="B29" r:id="rId52"/>
-    <hyperlink ref="H29" r:id="rId53"/>
-    <hyperlink ref="B30" r:id="rId54"/>
-    <hyperlink ref="H30" r:id="rId55"/>
-    <hyperlink ref="B31" r:id="rId56"/>
-    <hyperlink ref="H31" r:id="rId57"/>
-    <hyperlink ref="B32" r:id="rId58"/>
-    <hyperlink ref="H32" r:id="rId59"/>
-    <hyperlink ref="B33" r:id="rId60"/>
-    <hyperlink ref="H33" r:id="rId61"/>
-    <hyperlink ref="B34" r:id="rId62"/>
-    <hyperlink ref="H34" r:id="rId63"/>
-    <hyperlink ref="B35" r:id="rId64"/>
-    <hyperlink ref="H35" r:id="rId65"/>
-    <hyperlink ref="B36" r:id="rId66"/>
-    <hyperlink ref="H36" r:id="rId67"/>
-    <hyperlink ref="B37" r:id="rId68"/>
-    <hyperlink ref="H37" r:id="rId69"/>
-    <hyperlink ref="B38" r:id="rId70"/>
-    <hyperlink ref="H38" r:id="rId71"/>
-    <hyperlink ref="B39" r:id="rId72"/>
-    <hyperlink ref="H39" r:id="rId73"/>
-    <hyperlink ref="B40" r:id="rId74"/>
-    <hyperlink ref="H40" r:id="rId75"/>
-    <hyperlink ref="B41" r:id="rId76"/>
-    <hyperlink ref="H41" r:id="rId77"/>
-    <hyperlink ref="B42" r:id="rId78"/>
-    <hyperlink ref="H42" r:id="rId79"/>
-    <hyperlink ref="B43" r:id="rId80"/>
-    <hyperlink ref="H43" r:id="rId81"/>
-    <hyperlink ref="B44" r:id="rId82"/>
-    <hyperlink ref="B45" r:id="rId83"/>
-    <hyperlink ref="B46" r:id="rId84"/>
-    <hyperlink ref="B47" r:id="rId85"/>
-    <hyperlink ref="B48" r:id="rId86"/>
-    <hyperlink ref="B49" r:id="rId87"/>
-    <hyperlink ref="B50" r:id="rId88"/>
-    <hyperlink ref="B51" r:id="rId89"/>
-    <hyperlink ref="B52" r:id="rId90"/>
-    <hyperlink ref="B53" r:id="rId91"/>
-    <hyperlink ref="B54" r:id="rId92"/>
-    <hyperlink ref="B55" r:id="rId93"/>
-    <hyperlink ref="H55" r:id="rId94"/>
-    <hyperlink ref="B56" r:id="rId95"/>
-    <hyperlink ref="B57" r:id="rId96"/>
-    <hyperlink ref="H57" r:id="rId97"/>
-    <hyperlink ref="B58" r:id="rId98"/>
-    <hyperlink ref="H58" r:id="rId99"/>
+    <hyperlink ref="K6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="H7" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="B10" r:id="rId16"/>
+    <hyperlink ref="H10" r:id="rId17"/>
+    <hyperlink ref="B11" r:id="rId18"/>
+    <hyperlink ref="H11" r:id="rId19"/>
+    <hyperlink ref="B12" r:id="rId20"/>
+    <hyperlink ref="H12" r:id="rId21"/>
+    <hyperlink ref="B13" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="H14" r:id="rId24"/>
+    <hyperlink ref="B15" r:id="rId25"/>
+    <hyperlink ref="H15" r:id="rId26"/>
+    <hyperlink ref="B16" r:id="rId27"/>
+    <hyperlink ref="H16" r:id="rId28"/>
+    <hyperlink ref="B17" r:id="rId29"/>
+    <hyperlink ref="H17" r:id="rId30"/>
+    <hyperlink ref="B18" r:id="rId31"/>
+    <hyperlink ref="H18" r:id="rId32"/>
+    <hyperlink ref="B19" r:id="rId33"/>
+    <hyperlink ref="H19" r:id="rId34"/>
+    <hyperlink ref="B20" r:id="rId35"/>
+    <hyperlink ref="H20" r:id="rId36"/>
+    <hyperlink ref="B21" r:id="rId37"/>
+    <hyperlink ref="H21" r:id="rId38"/>
+    <hyperlink ref="B22" r:id="rId39"/>
+    <hyperlink ref="H22" r:id="rId40"/>
+    <hyperlink ref="B23" r:id="rId41"/>
+    <hyperlink ref="H23" r:id="rId42"/>
+    <hyperlink ref="B24" r:id="rId43"/>
+    <hyperlink ref="H24" r:id="rId44"/>
+    <hyperlink ref="B25" r:id="rId45"/>
+    <hyperlink ref="H25" r:id="rId46"/>
+    <hyperlink ref="B26" r:id="rId47"/>
+    <hyperlink ref="H26" r:id="rId48"/>
+    <hyperlink ref="B27" r:id="rId49"/>
+    <hyperlink ref="H27" r:id="rId50"/>
+    <hyperlink ref="B28" r:id="rId51"/>
+    <hyperlink ref="H28" r:id="rId52"/>
+    <hyperlink ref="B29" r:id="rId53"/>
+    <hyperlink ref="H29" r:id="rId54"/>
+    <hyperlink ref="B30" r:id="rId55"/>
+    <hyperlink ref="H30" r:id="rId56"/>
+    <hyperlink ref="B31" r:id="rId57"/>
+    <hyperlink ref="H31" r:id="rId58"/>
+    <hyperlink ref="B32" r:id="rId59"/>
+    <hyperlink ref="H32" r:id="rId60"/>
+    <hyperlink ref="B33" r:id="rId61"/>
+    <hyperlink ref="H33" r:id="rId62"/>
+    <hyperlink ref="B34" r:id="rId63"/>
+    <hyperlink ref="H34" r:id="rId64"/>
+    <hyperlink ref="B35" r:id="rId65"/>
+    <hyperlink ref="H35" r:id="rId66"/>
+    <hyperlink ref="B36" r:id="rId67"/>
+    <hyperlink ref="H36" r:id="rId68"/>
+    <hyperlink ref="B37" r:id="rId69"/>
+    <hyperlink ref="H37" r:id="rId70"/>
+    <hyperlink ref="B38" r:id="rId71"/>
+    <hyperlink ref="H38" r:id="rId72"/>
+    <hyperlink ref="B39" r:id="rId73"/>
+    <hyperlink ref="H39" r:id="rId74"/>
+    <hyperlink ref="B40" r:id="rId75"/>
+    <hyperlink ref="H40" r:id="rId76"/>
+    <hyperlink ref="B41" r:id="rId77"/>
+    <hyperlink ref="H41" r:id="rId78"/>
+    <hyperlink ref="B42" r:id="rId79"/>
+    <hyperlink ref="H42" r:id="rId80"/>
+    <hyperlink ref="B43" r:id="rId81"/>
+    <hyperlink ref="H43" r:id="rId82"/>
+    <hyperlink ref="B44" r:id="rId83"/>
+    <hyperlink ref="B45" r:id="rId84"/>
+    <hyperlink ref="B46" r:id="rId85"/>
+    <hyperlink ref="B47" r:id="rId86"/>
+    <hyperlink ref="B48" r:id="rId87"/>
+    <hyperlink ref="B49" r:id="rId88"/>
+    <hyperlink ref="B50" r:id="rId89"/>
+    <hyperlink ref="B51" r:id="rId90"/>
+    <hyperlink ref="B52" r:id="rId91"/>
+    <hyperlink ref="B53" r:id="rId92"/>
+    <hyperlink ref="B54" r:id="rId93"/>
+    <hyperlink ref="B55" r:id="rId94"/>
+    <hyperlink ref="H55" r:id="rId95"/>
+    <hyperlink ref="B56" r:id="rId96"/>
+    <hyperlink ref="B57" r:id="rId97"/>
+    <hyperlink ref="H57" r:id="rId98"/>
+    <hyperlink ref="B58" r:id="rId99"/>
+    <hyperlink ref="H58" r:id="rId100"/>
+    <hyperlink ref="J58" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3352,6 +3369,11 @@
       <c r="I6" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>excel_0_005.png</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="2" t="inlineStr">
@@ -3394,6 +3416,11 @@
       </c>
       <c r="I7" s="8" t="n">
         <v>1</v>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>excel_0_006.png</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -5240,84 +5267,86 @@
     <hyperlink ref="H5" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="H8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="H9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="H10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="H11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="H12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="H13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="H14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27"/>
-    <hyperlink ref="H15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29"/>
-    <hyperlink ref="H16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31"/>
-    <hyperlink ref="H17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="H18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="H19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="H20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="H21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="H22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="H23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="H24" r:id="rId46"/>
-    <hyperlink ref="B25" r:id="rId47"/>
-    <hyperlink ref="H25" r:id="rId48"/>
-    <hyperlink ref="B26" r:id="rId49"/>
-    <hyperlink ref="H26" r:id="rId50"/>
-    <hyperlink ref="B27" r:id="rId51"/>
-    <hyperlink ref="H27" r:id="rId52"/>
-    <hyperlink ref="B28" r:id="rId53"/>
-    <hyperlink ref="H28" r:id="rId54"/>
-    <hyperlink ref="B29" r:id="rId55"/>
-    <hyperlink ref="H29" r:id="rId56"/>
-    <hyperlink ref="B30" r:id="rId57"/>
-    <hyperlink ref="H30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59"/>
-    <hyperlink ref="H31" r:id="rId60"/>
-    <hyperlink ref="B32" r:id="rId61"/>
-    <hyperlink ref="H32" r:id="rId62"/>
-    <hyperlink ref="B33" r:id="rId63"/>
-    <hyperlink ref="H33" r:id="rId64"/>
-    <hyperlink ref="B34" r:id="rId65"/>
-    <hyperlink ref="H34" r:id="rId66"/>
-    <hyperlink ref="B35" r:id="rId67"/>
-    <hyperlink ref="H35" r:id="rId68"/>
-    <hyperlink ref="B36" r:id="rId69"/>
-    <hyperlink ref="H36" r:id="rId70"/>
-    <hyperlink ref="B37" r:id="rId71"/>
-    <hyperlink ref="B38" r:id="rId72"/>
-    <hyperlink ref="B39" r:id="rId73"/>
-    <hyperlink ref="B40" r:id="rId74"/>
-    <hyperlink ref="B41" r:id="rId75"/>
-    <hyperlink ref="B42" r:id="rId76"/>
-    <hyperlink ref="B43" r:id="rId77"/>
-    <hyperlink ref="B44" r:id="rId78"/>
-    <hyperlink ref="B45" r:id="rId79"/>
-    <hyperlink ref="B46" r:id="rId80"/>
-    <hyperlink ref="B47" r:id="rId81"/>
-    <hyperlink ref="B48" r:id="rId82"/>
-    <hyperlink ref="H48" r:id="rId83"/>
-    <hyperlink ref="B49" r:id="rId84"/>
-    <hyperlink ref="B50" r:id="rId85"/>
-    <hyperlink ref="H50" r:id="rId86"/>
-    <hyperlink ref="B51" r:id="rId87"/>
-    <hyperlink ref="H51" r:id="rId88"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="H7" r:id="rId13"/>
+    <hyperlink ref="J7" r:id="rId14"/>
+    <hyperlink ref="B8" r:id="rId15"/>
+    <hyperlink ref="H8" r:id="rId16"/>
+    <hyperlink ref="B9" r:id="rId17"/>
+    <hyperlink ref="H9" r:id="rId18"/>
+    <hyperlink ref="B10" r:id="rId19"/>
+    <hyperlink ref="H10" r:id="rId20"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="H11" r:id="rId22"/>
+    <hyperlink ref="B12" r:id="rId23"/>
+    <hyperlink ref="H12" r:id="rId24"/>
+    <hyperlink ref="B13" r:id="rId25"/>
+    <hyperlink ref="H13" r:id="rId26"/>
+    <hyperlink ref="B14" r:id="rId27"/>
+    <hyperlink ref="H14" r:id="rId28"/>
+    <hyperlink ref="B15" r:id="rId29"/>
+    <hyperlink ref="H15" r:id="rId30"/>
+    <hyperlink ref="B16" r:id="rId31"/>
+    <hyperlink ref="H16" r:id="rId32"/>
+    <hyperlink ref="B17" r:id="rId33"/>
+    <hyperlink ref="H17" r:id="rId34"/>
+    <hyperlink ref="B18" r:id="rId35"/>
+    <hyperlink ref="H18" r:id="rId36"/>
+    <hyperlink ref="B19" r:id="rId37"/>
+    <hyperlink ref="H19" r:id="rId38"/>
+    <hyperlink ref="B20" r:id="rId39"/>
+    <hyperlink ref="H20" r:id="rId40"/>
+    <hyperlink ref="B21" r:id="rId41"/>
+    <hyperlink ref="H21" r:id="rId42"/>
+    <hyperlink ref="B22" r:id="rId43"/>
+    <hyperlink ref="H22" r:id="rId44"/>
+    <hyperlink ref="B23" r:id="rId45"/>
+    <hyperlink ref="H23" r:id="rId46"/>
+    <hyperlink ref="B24" r:id="rId47"/>
+    <hyperlink ref="H24" r:id="rId48"/>
+    <hyperlink ref="B25" r:id="rId49"/>
+    <hyperlink ref="H25" r:id="rId50"/>
+    <hyperlink ref="B26" r:id="rId51"/>
+    <hyperlink ref="H26" r:id="rId52"/>
+    <hyperlink ref="B27" r:id="rId53"/>
+    <hyperlink ref="H27" r:id="rId54"/>
+    <hyperlink ref="B28" r:id="rId55"/>
+    <hyperlink ref="H28" r:id="rId56"/>
+    <hyperlink ref="B29" r:id="rId57"/>
+    <hyperlink ref="H29" r:id="rId58"/>
+    <hyperlink ref="B30" r:id="rId59"/>
+    <hyperlink ref="H30" r:id="rId60"/>
+    <hyperlink ref="B31" r:id="rId61"/>
+    <hyperlink ref="H31" r:id="rId62"/>
+    <hyperlink ref="B32" r:id="rId63"/>
+    <hyperlink ref="H32" r:id="rId64"/>
+    <hyperlink ref="B33" r:id="rId65"/>
+    <hyperlink ref="H33" r:id="rId66"/>
+    <hyperlink ref="B34" r:id="rId67"/>
+    <hyperlink ref="H34" r:id="rId68"/>
+    <hyperlink ref="B35" r:id="rId69"/>
+    <hyperlink ref="H35" r:id="rId70"/>
+    <hyperlink ref="B36" r:id="rId71"/>
+    <hyperlink ref="H36" r:id="rId72"/>
+    <hyperlink ref="B37" r:id="rId73"/>
+    <hyperlink ref="B38" r:id="rId74"/>
+    <hyperlink ref="B39" r:id="rId75"/>
+    <hyperlink ref="B40" r:id="rId76"/>
+    <hyperlink ref="B41" r:id="rId77"/>
+    <hyperlink ref="B42" r:id="rId78"/>
+    <hyperlink ref="B43" r:id="rId79"/>
+    <hyperlink ref="B44" r:id="rId80"/>
+    <hyperlink ref="B45" r:id="rId81"/>
+    <hyperlink ref="B46" r:id="rId82"/>
+    <hyperlink ref="B47" r:id="rId83"/>
+    <hyperlink ref="B48" r:id="rId84"/>
+    <hyperlink ref="H48" r:id="rId85"/>
+    <hyperlink ref="B49" r:id="rId86"/>
+    <hyperlink ref="B50" r:id="rId87"/>
+    <hyperlink ref="H50" r:id="rId88"/>
+    <hyperlink ref="B51" r:id="rId89"/>
+    <hyperlink ref="H51" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5623,6 +5652,11 @@
       <c r="I6" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>ppt_0_005.png</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="2" t="inlineStr">
@@ -5666,6 +5700,11 @@
       <c r="I7" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>ppt_0_006.png</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A8" s="2" t="inlineStr">
@@ -5901,7 +5940,7 @@
       <c r="I12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="0" t="inlineStr">
         <is>
           <t>ppt_0_011.png</t>
         </is>
@@ -7698,95 +7737,97 @@
     <hyperlink ref="H5" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="H8" r:id="rId14"/>
-    <hyperlink ref="J8" r:id="rId15"/>
-    <hyperlink ref="B9" r:id="rId16"/>
-    <hyperlink ref="H9" r:id="rId17"/>
-    <hyperlink ref="J9" r:id="rId18"/>
-    <hyperlink ref="B10" r:id="rId19"/>
-    <hyperlink ref="H10" r:id="rId20"/>
-    <hyperlink ref="J10" r:id="rId21"/>
-    <hyperlink ref="B11" r:id="rId22"/>
-    <hyperlink ref="H11" r:id="rId23"/>
-    <hyperlink ref="J11" r:id="rId24"/>
-    <hyperlink ref="B12" r:id="rId25"/>
-    <hyperlink ref="H12" r:id="rId26"/>
-    <hyperlink ref="J12" r:id="rId27"/>
-    <hyperlink ref="B13" r:id="rId28"/>
-    <hyperlink ref="H13" r:id="rId29"/>
-    <hyperlink ref="B14" r:id="rId30"/>
-    <hyperlink ref="H14" r:id="rId31"/>
-    <hyperlink ref="B15" r:id="rId32"/>
-    <hyperlink ref="H15" r:id="rId33"/>
-    <hyperlink ref="B16" r:id="rId34"/>
-    <hyperlink ref="H16" r:id="rId35"/>
-    <hyperlink ref="B17" r:id="rId36"/>
-    <hyperlink ref="H17" r:id="rId37"/>
-    <hyperlink ref="B18" r:id="rId38"/>
-    <hyperlink ref="H18" r:id="rId39"/>
-    <hyperlink ref="B19" r:id="rId40"/>
-    <hyperlink ref="H19" r:id="rId41"/>
-    <hyperlink ref="B20" r:id="rId42"/>
-    <hyperlink ref="H20" r:id="rId43"/>
-    <hyperlink ref="B21" r:id="rId44"/>
-    <hyperlink ref="H21" r:id="rId45"/>
-    <hyperlink ref="B22" r:id="rId46"/>
-    <hyperlink ref="H22" r:id="rId47"/>
-    <hyperlink ref="B23" r:id="rId48"/>
-    <hyperlink ref="B24" r:id="rId49"/>
-    <hyperlink ref="B25" r:id="rId50"/>
-    <hyperlink ref="H25" r:id="rId51"/>
-    <hyperlink ref="B26" r:id="rId52"/>
-    <hyperlink ref="H26" r:id="rId53"/>
-    <hyperlink ref="B27" r:id="rId54"/>
-    <hyperlink ref="H27" r:id="rId55"/>
-    <hyperlink ref="B28" r:id="rId56"/>
-    <hyperlink ref="H28" r:id="rId57"/>
-    <hyperlink ref="B29" r:id="rId58"/>
-    <hyperlink ref="H29" r:id="rId59"/>
-    <hyperlink ref="B30" r:id="rId60"/>
-    <hyperlink ref="H30" r:id="rId61"/>
-    <hyperlink ref="B31" r:id="rId62"/>
-    <hyperlink ref="H31" r:id="rId63"/>
-    <hyperlink ref="B32" r:id="rId64"/>
-    <hyperlink ref="H32" r:id="rId65"/>
-    <hyperlink ref="B33" r:id="rId66"/>
-    <hyperlink ref="H33" r:id="rId67"/>
-    <hyperlink ref="B34" r:id="rId68"/>
-    <hyperlink ref="H34" r:id="rId69"/>
-    <hyperlink ref="B35" r:id="rId70"/>
-    <hyperlink ref="H35" r:id="rId71"/>
-    <hyperlink ref="B36" r:id="rId72"/>
-    <hyperlink ref="H36" r:id="rId73"/>
-    <hyperlink ref="B37" r:id="rId74"/>
-    <hyperlink ref="H37" r:id="rId75"/>
-    <hyperlink ref="B38" r:id="rId76"/>
-    <hyperlink ref="H38" r:id="rId77"/>
-    <hyperlink ref="B39" r:id="rId78"/>
-    <hyperlink ref="H39" r:id="rId79"/>
-    <hyperlink ref="B40" r:id="rId80"/>
-    <hyperlink ref="H40" r:id="rId81"/>
-    <hyperlink ref="B41" r:id="rId82"/>
-    <hyperlink ref="B42" r:id="rId83"/>
-    <hyperlink ref="B43" r:id="rId84"/>
-    <hyperlink ref="B44" r:id="rId85"/>
-    <hyperlink ref="B45" r:id="rId86"/>
-    <hyperlink ref="B46" r:id="rId87"/>
-    <hyperlink ref="B47" r:id="rId88"/>
-    <hyperlink ref="B48" r:id="rId89"/>
-    <hyperlink ref="B49" r:id="rId90"/>
-    <hyperlink ref="B50" r:id="rId91"/>
-    <hyperlink ref="B51" r:id="rId92"/>
-    <hyperlink ref="B52" r:id="rId93"/>
-    <hyperlink ref="H52" r:id="rId94"/>
-    <hyperlink ref="B53" r:id="rId95"/>
-    <hyperlink ref="B54" r:id="rId96"/>
-    <hyperlink ref="H54" r:id="rId97"/>
-    <hyperlink ref="B55" r:id="rId98"/>
-    <hyperlink ref="H55" r:id="rId99"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="H7" r:id="rId13"/>
+    <hyperlink ref="J7" r:id="rId14"/>
+    <hyperlink ref="B8" r:id="rId15"/>
+    <hyperlink ref="H8" r:id="rId16"/>
+    <hyperlink ref="J8" r:id="rId17"/>
+    <hyperlink ref="B9" r:id="rId18"/>
+    <hyperlink ref="H9" r:id="rId19"/>
+    <hyperlink ref="J9" r:id="rId20"/>
+    <hyperlink ref="B10" r:id="rId21"/>
+    <hyperlink ref="H10" r:id="rId22"/>
+    <hyperlink ref="J10" r:id="rId23"/>
+    <hyperlink ref="B11" r:id="rId24"/>
+    <hyperlink ref="H11" r:id="rId25"/>
+    <hyperlink ref="J11" r:id="rId26"/>
+    <hyperlink ref="B12" r:id="rId27"/>
+    <hyperlink ref="H12" r:id="rId28"/>
+    <hyperlink ref="J12" r:id="rId29"/>
+    <hyperlink ref="B13" r:id="rId30"/>
+    <hyperlink ref="H13" r:id="rId31"/>
+    <hyperlink ref="B14" r:id="rId32"/>
+    <hyperlink ref="H14" r:id="rId33"/>
+    <hyperlink ref="B15" r:id="rId34"/>
+    <hyperlink ref="H15" r:id="rId35"/>
+    <hyperlink ref="B16" r:id="rId36"/>
+    <hyperlink ref="H16" r:id="rId37"/>
+    <hyperlink ref="B17" r:id="rId38"/>
+    <hyperlink ref="H17" r:id="rId39"/>
+    <hyperlink ref="B18" r:id="rId40"/>
+    <hyperlink ref="H18" r:id="rId41"/>
+    <hyperlink ref="B19" r:id="rId42"/>
+    <hyperlink ref="H19" r:id="rId43"/>
+    <hyperlink ref="B20" r:id="rId44"/>
+    <hyperlink ref="H20" r:id="rId45"/>
+    <hyperlink ref="B21" r:id="rId46"/>
+    <hyperlink ref="H21" r:id="rId47"/>
+    <hyperlink ref="B22" r:id="rId48"/>
+    <hyperlink ref="H22" r:id="rId49"/>
+    <hyperlink ref="B23" r:id="rId50"/>
+    <hyperlink ref="B24" r:id="rId51"/>
+    <hyperlink ref="B25" r:id="rId52"/>
+    <hyperlink ref="H25" r:id="rId53"/>
+    <hyperlink ref="B26" r:id="rId54"/>
+    <hyperlink ref="H26" r:id="rId55"/>
+    <hyperlink ref="B27" r:id="rId56"/>
+    <hyperlink ref="H27" r:id="rId57"/>
+    <hyperlink ref="B28" r:id="rId58"/>
+    <hyperlink ref="H28" r:id="rId59"/>
+    <hyperlink ref="B29" r:id="rId60"/>
+    <hyperlink ref="H29" r:id="rId61"/>
+    <hyperlink ref="B30" r:id="rId62"/>
+    <hyperlink ref="H30" r:id="rId63"/>
+    <hyperlink ref="B31" r:id="rId64"/>
+    <hyperlink ref="H31" r:id="rId65"/>
+    <hyperlink ref="B32" r:id="rId66"/>
+    <hyperlink ref="H32" r:id="rId67"/>
+    <hyperlink ref="B33" r:id="rId68"/>
+    <hyperlink ref="H33" r:id="rId69"/>
+    <hyperlink ref="B34" r:id="rId70"/>
+    <hyperlink ref="H34" r:id="rId71"/>
+    <hyperlink ref="B35" r:id="rId72"/>
+    <hyperlink ref="H35" r:id="rId73"/>
+    <hyperlink ref="B36" r:id="rId74"/>
+    <hyperlink ref="H36" r:id="rId75"/>
+    <hyperlink ref="B37" r:id="rId76"/>
+    <hyperlink ref="H37" r:id="rId77"/>
+    <hyperlink ref="B38" r:id="rId78"/>
+    <hyperlink ref="H38" r:id="rId79"/>
+    <hyperlink ref="B39" r:id="rId80"/>
+    <hyperlink ref="H39" r:id="rId81"/>
+    <hyperlink ref="B40" r:id="rId82"/>
+    <hyperlink ref="H40" r:id="rId83"/>
+    <hyperlink ref="B41" r:id="rId84"/>
+    <hyperlink ref="B42" r:id="rId85"/>
+    <hyperlink ref="B43" r:id="rId86"/>
+    <hyperlink ref="B44" r:id="rId87"/>
+    <hyperlink ref="B45" r:id="rId88"/>
+    <hyperlink ref="B46" r:id="rId89"/>
+    <hyperlink ref="B47" r:id="rId90"/>
+    <hyperlink ref="B48" r:id="rId91"/>
+    <hyperlink ref="B49" r:id="rId92"/>
+    <hyperlink ref="B50" r:id="rId93"/>
+    <hyperlink ref="B51" r:id="rId94"/>
+    <hyperlink ref="B52" r:id="rId95"/>
+    <hyperlink ref="H52" r:id="rId96"/>
+    <hyperlink ref="B53" r:id="rId97"/>
+    <hyperlink ref="B54" r:id="rId98"/>
+    <hyperlink ref="H54" r:id="rId99"/>
+    <hyperlink ref="B55" r:id="rId100"/>
+    <hyperlink ref="H55" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12943,6 +12984,11 @@
       <c r="I6" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ppt_61_005.png</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="2" t="inlineStr">
@@ -15069,92 +15115,93 @@
     <hyperlink ref="H5" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="H8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="H9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="H10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="H11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="H12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="H13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="H14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27"/>
-    <hyperlink ref="H15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29"/>
-    <hyperlink ref="H16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31"/>
-    <hyperlink ref="H17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="H18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="H19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="H20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="H21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="H22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="B24" r:id="rId44"/>
-    <hyperlink ref="B25" r:id="rId45"/>
-    <hyperlink ref="B26" r:id="rId46"/>
-    <hyperlink ref="B27" r:id="rId47"/>
-    <hyperlink ref="H27" r:id="rId48"/>
-    <hyperlink ref="B28" r:id="rId49"/>
-    <hyperlink ref="H28" r:id="rId50"/>
-    <hyperlink ref="B29" r:id="rId51"/>
-    <hyperlink ref="H29" r:id="rId52"/>
-    <hyperlink ref="B30" r:id="rId53"/>
-    <hyperlink ref="H30" r:id="rId54"/>
-    <hyperlink ref="B31" r:id="rId55"/>
-    <hyperlink ref="H31" r:id="rId56"/>
-    <hyperlink ref="B32" r:id="rId57"/>
-    <hyperlink ref="H32" r:id="rId58"/>
-    <hyperlink ref="B33" r:id="rId59"/>
-    <hyperlink ref="H33" r:id="rId60"/>
-    <hyperlink ref="B34" r:id="rId61"/>
-    <hyperlink ref="H34" r:id="rId62"/>
-    <hyperlink ref="B35" r:id="rId63"/>
-    <hyperlink ref="H35" r:id="rId64"/>
-    <hyperlink ref="B36" r:id="rId65"/>
-    <hyperlink ref="H36" r:id="rId66"/>
-    <hyperlink ref="B37" r:id="rId67"/>
-    <hyperlink ref="H37" r:id="rId68"/>
-    <hyperlink ref="B38" r:id="rId69"/>
-    <hyperlink ref="H38" r:id="rId70"/>
-    <hyperlink ref="B39" r:id="rId71"/>
-    <hyperlink ref="H39" r:id="rId72"/>
-    <hyperlink ref="B40" r:id="rId73"/>
-    <hyperlink ref="H40" r:id="rId74"/>
-    <hyperlink ref="B41" r:id="rId75"/>
-    <hyperlink ref="H41" r:id="rId76"/>
-    <hyperlink ref="B42" r:id="rId77"/>
-    <hyperlink ref="H42" r:id="rId78"/>
-    <hyperlink ref="B43" r:id="rId79"/>
-    <hyperlink ref="B44" r:id="rId80"/>
-    <hyperlink ref="B45" r:id="rId81"/>
-    <hyperlink ref="B46" r:id="rId82"/>
-    <hyperlink ref="B47" r:id="rId83"/>
-    <hyperlink ref="B48" r:id="rId84"/>
-    <hyperlink ref="B49" r:id="rId85"/>
-    <hyperlink ref="B50" r:id="rId86"/>
-    <hyperlink ref="B51" r:id="rId87"/>
-    <hyperlink ref="B52" r:id="rId88"/>
-    <hyperlink ref="B53" r:id="rId89"/>
-    <hyperlink ref="B54" r:id="rId90"/>
-    <hyperlink ref="H54" r:id="rId91"/>
-    <hyperlink ref="B55" r:id="rId92"/>
-    <hyperlink ref="B56" r:id="rId93"/>
-    <hyperlink ref="H56" r:id="rId94"/>
-    <hyperlink ref="B57" r:id="rId95"/>
-    <hyperlink ref="H57" r:id="rId96"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="H7" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="H8" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="H9" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="H10" r:id="rId19"/>
+    <hyperlink ref="B11" r:id="rId20"/>
+    <hyperlink ref="H11" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="H12" r:id="rId23"/>
+    <hyperlink ref="B13" r:id="rId24"/>
+    <hyperlink ref="H13" r:id="rId25"/>
+    <hyperlink ref="B14" r:id="rId26"/>
+    <hyperlink ref="H14" r:id="rId27"/>
+    <hyperlink ref="B15" r:id="rId28"/>
+    <hyperlink ref="H15" r:id="rId29"/>
+    <hyperlink ref="B16" r:id="rId30"/>
+    <hyperlink ref="H16" r:id="rId31"/>
+    <hyperlink ref="B17" r:id="rId32"/>
+    <hyperlink ref="H17" r:id="rId33"/>
+    <hyperlink ref="B18" r:id="rId34"/>
+    <hyperlink ref="H18" r:id="rId35"/>
+    <hyperlink ref="B19" r:id="rId36"/>
+    <hyperlink ref="H19" r:id="rId37"/>
+    <hyperlink ref="B20" r:id="rId38"/>
+    <hyperlink ref="H20" r:id="rId39"/>
+    <hyperlink ref="B21" r:id="rId40"/>
+    <hyperlink ref="H21" r:id="rId41"/>
+    <hyperlink ref="B22" r:id="rId42"/>
+    <hyperlink ref="H22" r:id="rId43"/>
+    <hyperlink ref="B23" r:id="rId44"/>
+    <hyperlink ref="B24" r:id="rId45"/>
+    <hyperlink ref="B25" r:id="rId46"/>
+    <hyperlink ref="B26" r:id="rId47"/>
+    <hyperlink ref="B27" r:id="rId48"/>
+    <hyperlink ref="H27" r:id="rId49"/>
+    <hyperlink ref="B28" r:id="rId50"/>
+    <hyperlink ref="H28" r:id="rId51"/>
+    <hyperlink ref="B29" r:id="rId52"/>
+    <hyperlink ref="H29" r:id="rId53"/>
+    <hyperlink ref="B30" r:id="rId54"/>
+    <hyperlink ref="H30" r:id="rId55"/>
+    <hyperlink ref="B31" r:id="rId56"/>
+    <hyperlink ref="H31" r:id="rId57"/>
+    <hyperlink ref="B32" r:id="rId58"/>
+    <hyperlink ref="H32" r:id="rId59"/>
+    <hyperlink ref="B33" r:id="rId60"/>
+    <hyperlink ref="H33" r:id="rId61"/>
+    <hyperlink ref="B34" r:id="rId62"/>
+    <hyperlink ref="H34" r:id="rId63"/>
+    <hyperlink ref="B35" r:id="rId64"/>
+    <hyperlink ref="H35" r:id="rId65"/>
+    <hyperlink ref="B36" r:id="rId66"/>
+    <hyperlink ref="H36" r:id="rId67"/>
+    <hyperlink ref="B37" r:id="rId68"/>
+    <hyperlink ref="H37" r:id="rId69"/>
+    <hyperlink ref="B38" r:id="rId70"/>
+    <hyperlink ref="H38" r:id="rId71"/>
+    <hyperlink ref="B39" r:id="rId72"/>
+    <hyperlink ref="H39" r:id="rId73"/>
+    <hyperlink ref="B40" r:id="rId74"/>
+    <hyperlink ref="H40" r:id="rId75"/>
+    <hyperlink ref="B41" r:id="rId76"/>
+    <hyperlink ref="H41" r:id="rId77"/>
+    <hyperlink ref="B42" r:id="rId78"/>
+    <hyperlink ref="H42" r:id="rId79"/>
+    <hyperlink ref="B43" r:id="rId80"/>
+    <hyperlink ref="B44" r:id="rId81"/>
+    <hyperlink ref="B45" r:id="rId82"/>
+    <hyperlink ref="B46" r:id="rId83"/>
+    <hyperlink ref="B47" r:id="rId84"/>
+    <hyperlink ref="B48" r:id="rId85"/>
+    <hyperlink ref="B49" r:id="rId86"/>
+    <hyperlink ref="B50" r:id="rId87"/>
+    <hyperlink ref="B51" r:id="rId88"/>
+    <hyperlink ref="B52" r:id="rId89"/>
+    <hyperlink ref="B53" r:id="rId90"/>
+    <hyperlink ref="B54" r:id="rId91"/>
+    <hyperlink ref="H54" r:id="rId92"/>
+    <hyperlink ref="B55" r:id="rId93"/>
+    <hyperlink ref="B56" r:id="rId94"/>
+    <hyperlink ref="H56" r:id="rId95"/>
+    <hyperlink ref="B57" r:id="rId96"/>
+    <hyperlink ref="H57" r:id="rId97"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
